--- a/src/AVIS/TestData/AVIS_GUITestData_CreateReservation.xlsx
+++ b/src/AVIS/TestData/AVIS_GUITestData_CreateReservation.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUI_Automation\selenium\GUI_TestDataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkhoday\git\ABG\src\AVIS\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView windowHeight="9735" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Avis_GUI" sheetId="1" r:id="rId1"/>
-    <sheet name="Reservation_Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Avis_GUI" r:id="rId1" sheetId="1"/>
+    <sheet name="Reservation_Details" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Avis_GUI!$A$1:$AP$61</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Avis_GUI!$A$1:$AP$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
     <author>Doris Anto Pauline</author>
   </authors>
   <commentList>
-    <comment ref="R39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="R39" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R51" authorId="0" shapeId="0">
+    <comment authorId="0" ref="R51" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="449">
   <si>
     <t>REGION</t>
   </si>
@@ -1033,9 +1033,6 @@
     <t/>
   </si>
   <si>
-    <t>Avis2018#</t>
-  </si>
-  <si>
     <t>INTERNET GUI</t>
   </si>
   <si>
@@ -1363,9 +1360,6 @@
     <t>$27.87</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Reservation created successfully. Reservation Number: 09899898US1</t>
   </si>
   <si>
@@ -1436,12 +1430,16 @@
   </si>
   <si>
     <t>09899940US1</t>
+  </si>
+  <si>
+    <t>Avis18nov$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1542,80 +1540,80 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1632,10 +1630,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1670,7 +1668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,7 +1703,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1799,21 +1797,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1830,7 +1828,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1882,68 +1880,68 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="52.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="98.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="60.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="16.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="21.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="62.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="52.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="98.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="60.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="6.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="8.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="17" width="16.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="17" width="14.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="17" width="14.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="8.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="18.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="3" width="13.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="3" width="14.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="3" width="21.7109375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="3" width="62.7109375" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="43" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>26</v>
@@ -2002,7 +2000,7 @@
         <v>43</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>46</v>
@@ -2079,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -2091,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>25</v>
@@ -2100,7 +2098,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>19</v>
@@ -2110,7 +2108,7 @@
       </c>
       <c r="M2" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>289</v>
@@ -2120,17 +2118,17 @@
       </c>
       <c r="P2" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>291</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>52</v>
@@ -2150,13 +2148,13 @@
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
       <c r="AB2" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>25</v>
@@ -2165,34 +2163,34 @@
         <v>25</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP2" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -2203,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -2215,7 +2213,7 @@
         <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>241</v>
@@ -2224,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>21</v>
@@ -2234,20 +2232,20 @@
       </c>
       <c r="M3" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>241</v>
       </c>
       <c r="P3" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>295</v>
@@ -2270,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA3" s="16"/>
       <c r="AB3" s="6"/>
@@ -2297,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
@@ -2309,7 +2307,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>241</v>
@@ -2318,7 +2316,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>23</v>
@@ -2328,20 +2326,20 @@
       </c>
       <c r="M4" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>241</v>
       </c>
       <c r="P4" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>292</v>
@@ -2366,13 +2364,13 @@
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC4" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>241</v>
@@ -2381,34 +2379,34 @@
         <v>241</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI4" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN4" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AK4" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="AO4" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -2419,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -2431,7 +2429,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>242</v>
@@ -2440,7 +2438,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>181</v>
@@ -2450,7 +2448,7 @@
       </c>
       <c r="M5" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>10/13/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>51</v>
@@ -2460,10 +2458,10 @@
       </c>
       <c r="P5" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "mm/dd/yy")</f>
-        <v>10/14/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>292</v>
@@ -2488,13 +2486,13 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC5" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="AD5" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>242</v>
@@ -2503,34 +2501,34 @@
         <v>242</v>
       </c>
       <c r="AG5" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AI5" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="AI5" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="AO5" s="6" t="s">
         <v>314</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -2541,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -2553,7 +2551,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>243</v>
@@ -2562,7 +2560,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>183</v>
@@ -2572,7 +2570,7 @@
       </c>
       <c r="M6" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>288</v>
@@ -2582,7 +2580,7 @@
       </c>
       <c r="P6" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>10/13/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>288</v>
@@ -2612,13 +2610,13 @@
         <v>57</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>243</v>
@@ -2627,34 +2625,34 @@
         <v>243</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AK6" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM6" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AL6" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="AN6" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -2665,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
@@ -2677,7 +2675,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>244</v>
@@ -2686,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>185</v>
@@ -2696,7 +2694,7 @@
       </c>
       <c r="M7" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>286</v>
@@ -2706,7 +2704,7 @@
       </c>
       <c r="P7" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "mm/dd/yy")</f>
-        <v>10/14/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>286</v>
@@ -2736,13 +2734,13 @@
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>244</v>
@@ -2751,34 +2749,34 @@
         <v>244</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL7" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AM7" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="AN7" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AO7" s="6" t="s">
         <v>314</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -2789,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -2801,7 +2799,7 @@
         <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>244</v>
@@ -2810,7 +2808,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>187</v>
@@ -2820,7 +2818,7 @@
       </c>
       <c r="M8" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>286</v>
@@ -2830,7 +2828,7 @@
       </c>
       <c r="P8" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "mm/dd/yy")</f>
-        <v>10/14/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>286</v>
@@ -2860,13 +2858,13 @@
         <v>310</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE8" s="6" t="s">
         <v>244</v>
@@ -2875,34 +2873,34 @@
         <v>244</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AK8" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM8" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AL8" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="AN8" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AO8" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -2913,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -2925,7 +2923,7 @@
         <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>245</v>
@@ -2934,7 +2932,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>189</v>
@@ -2944,7 +2942,7 @@
       </c>
       <c r="M9" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>51</v>
@@ -2954,7 +2952,7 @@
       </c>
       <c r="P9" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>10/13/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>51</v>
@@ -2982,13 +2980,13 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD9" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="AE9" s="6" t="s">
         <v>245</v>
@@ -2997,34 +2995,34 @@
         <v>245</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AK9" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM9" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AL9" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="AN9" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -3035,7 +3033,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
@@ -3047,7 +3045,7 @@
         <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>246</v>
@@ -3056,7 +3054,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>191</v>
@@ -3065,8 +3063,8 @@
         <v>192</v>
       </c>
       <c r="M10" s="24" t="str">
-        <f t="shared" ref="M10:M46" ca="1" si="0">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>10/09/18</v>
+        <f ca="1" ref="M10:M46" si="0" t="shared">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>11/19/18</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>288</v>
@@ -3075,8 +3073,8 @@
         <v>246</v>
       </c>
       <c r="P10" s="24" t="str">
-        <f t="shared" ref="P10:P12" ca="1" si="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <f ca="1" ref="P10:P12" si="1" t="shared">TEXT(TODAY()+2, "mm/dd/yy")</f>
+        <v>11/21/18</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>288</v>
@@ -3104,13 +3102,13 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AC10" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD10" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="AE10" s="6" t="s">
         <v>246</v>
@@ -3119,34 +3117,34 @@
         <v>246</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AJ10" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN10" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="AK10" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="AO10" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AP10" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -3157,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
@@ -3169,7 +3167,7 @@
         <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>247</v>
@@ -3178,7 +3176,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>193</v>
@@ -3187,8 +3185,8 @@
         <v>194</v>
       </c>
       <c r="M11" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N11" s="28" t="s">
         <v>288</v>
@@ -3197,11 +3195,11 @@
         <v>247</v>
       </c>
       <c r="P11" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10/11/18</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>292</v>
@@ -3226,13 +3224,13 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>247</v>
@@ -3241,34 +3239,34 @@
         <v>247</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI11" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AJ11" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN11" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="AK11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="AO11" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AP11" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -3279,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
@@ -3291,7 +3289,7 @@
         <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>248</v>
@@ -3300,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>195</v>
@@ -3309,8 +3307,8 @@
         <v>196</v>
       </c>
       <c r="M12" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N12" s="28" t="s">
         <v>288</v>
@@ -3319,11 +3317,11 @@
         <v>248</v>
       </c>
       <c r="P12" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10/11/18</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>291</v>
@@ -3348,13 +3346,13 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AC12" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD12" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="AE12" s="6" t="s">
         <v>248</v>
@@ -3363,31 +3361,31 @@
         <v>248</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH12" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AK12" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN12" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="AK12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM12" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="AO12" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AP12" s="6"/>
     </row>
@@ -3411,7 +3409,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>249</v>
@@ -3420,7 +3418,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>197</v>
@@ -3430,7 +3428,7 @@
       </c>
       <c r="M13" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="N13" s="28" t="s">
         <v>288</v>
@@ -3440,7 +3438,7 @@
       </c>
       <c r="P13" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>289</v>
@@ -3503,7 +3501,7 @@
         <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>250</v>
@@ -3512,7 +3510,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>199</v>
@@ -3522,7 +3520,7 @@
       </c>
       <c r="M14" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>288</v>
@@ -3532,10 +3530,10 @@
       </c>
       <c r="P14" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>10/13/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>291</v>
@@ -3595,7 +3593,7 @@
         <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>251</v>
@@ -3604,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>201</v>
@@ -3613,8 +3611,8 @@
         <v>202</v>
       </c>
       <c r="M15" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N15" s="27" t="s">
         <v>286</v>
@@ -3624,7 +3622,7 @@
       </c>
       <c r="P15" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>286</v>
@@ -3634,7 +3632,7 @@
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U15" s="6" t="s">
         <v>54</v>
@@ -3691,7 +3689,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>252</v>
@@ -3700,7 +3698,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>203</v>
@@ -3710,7 +3708,7 @@
       </c>
       <c r="M16" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>286</v>
@@ -3720,7 +3718,7 @@
       </c>
       <c r="P16" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>10/13/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>286</v>
@@ -3783,7 +3781,7 @@
         <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>253</v>
@@ -3792,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>19</v>
@@ -3801,8 +3799,8 @@
         <v>20</v>
       </c>
       <c r="M17" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>286</v>
@@ -3812,7 +3810,7 @@
       </c>
       <c r="P17" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>10/09/18</v>
+        <v>11/19/18</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>287</v>
@@ -3877,7 +3875,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>254</v>
@@ -3886,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>185</v>
@@ -3895,8 +3893,8 @@
         <v>186</v>
       </c>
       <c r="M18" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>286</v>
@@ -3906,7 +3904,7 @@
       </c>
       <c r="P18" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>10/09/18</v>
+        <v>11/19/18</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>286</v>
@@ -3969,7 +3967,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>255</v>
@@ -3978,7 +3976,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>205</v>
@@ -3987,8 +3985,8 @@
         <v>206</v>
       </c>
       <c r="M19" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>286</v>
@@ -3998,7 +3996,7 @@
       </c>
       <c r="P19" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>286</v>
@@ -4061,7 +4059,7 @@
         <v>98</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>256</v>
@@ -4070,7 +4068,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>207</v>
@@ -4079,8 +4077,8 @@
         <v>208</v>
       </c>
       <c r="M20" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>286</v>
@@ -4090,7 +4088,7 @@
       </c>
       <c r="P20" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>286</v>
@@ -4153,7 +4151,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>254</v>
@@ -4162,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>209</v>
@@ -4171,8 +4169,8 @@
         <v>210</v>
       </c>
       <c r="M21" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>286</v>
@@ -4182,7 +4180,7 @@
       </c>
       <c r="P21" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>286</v>
@@ -4245,7 +4243,7 @@
         <v>102</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>255</v>
@@ -4254,7 +4252,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>211</v>
@@ -4263,8 +4261,8 @@
         <v>212</v>
       </c>
       <c r="M22" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>286</v>
@@ -4274,7 +4272,7 @@
       </c>
       <c r="P22" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <v>11/21/18</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>288</v>
@@ -4337,7 +4335,7 @@
         <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>257</v>
@@ -4346,7 +4344,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>213</v>
@@ -4355,8 +4353,8 @@
         <v>214</v>
       </c>
       <c r="M23" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>286</v>
@@ -4366,7 +4364,7 @@
       </c>
       <c r="P23" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>286</v>
@@ -4429,7 +4427,7 @@
         <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>256</v>
@@ -4438,7 +4436,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>215</v>
@@ -4447,8 +4445,8 @@
         <v>216</v>
       </c>
       <c r="M24" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>286</v>
@@ -4458,7 +4456,7 @@
       </c>
       <c r="P24" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>286</v>
@@ -4521,7 +4519,7 @@
         <v>108</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>257</v>
@@ -4530,7 +4528,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>217</v>
@@ -4539,8 +4537,8 @@
         <v>218</v>
       </c>
       <c r="M25" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>286</v>
@@ -4550,7 +4548,7 @@
       </c>
       <c r="P25" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>289</v>
@@ -4603,7 +4601,7 @@
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>258</v>
@@ -4612,7 +4610,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>219</v>
@@ -4621,8 +4619,8 @@
         <v>220</v>
       </c>
       <c r="M26" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>286</v>
@@ -4632,7 +4630,7 @@
       </c>
       <c r="P26" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>10/13/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>286</v>
@@ -4685,7 +4683,7 @@
         <v>112</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>259</v>
@@ -4694,7 +4692,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>221</v>
@@ -4703,8 +4701,8 @@
         <v>222</v>
       </c>
       <c r="M27" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>286</v>
@@ -4714,7 +4712,7 @@
       </c>
       <c r="P27" s="24" t="str">
         <f ca="1">TEXT(TODAY()+6, "mm/dd/yy")</f>
-        <v>10/15/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>286</v>
@@ -4767,7 +4765,7 @@
         <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>260</v>
@@ -4776,7 +4774,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>223</v>
@@ -4785,8 +4783,8 @@
         <v>224</v>
       </c>
       <c r="M28" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>286</v>
@@ -4796,7 +4794,7 @@
       </c>
       <c r="P28" s="24" t="str">
         <f ca="1">TEXT(TODAY()+7, "mm/dd/yy")</f>
-        <v>10/16/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>288</v>
@@ -4849,7 +4847,7 @@
         <v>116</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>261</v>
@@ -4858,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>225</v>
@@ -4867,8 +4865,8 @@
         <v>226</v>
       </c>
       <c r="M29" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>286</v>
@@ -4878,7 +4876,7 @@
       </c>
       <c r="P29" s="24" t="str">
         <f ca="1">TEXT(TODAY()+66, "mm/dd/yy")</f>
-        <v>12/14/18</v>
+        <v>01/24/19</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>286</v>
@@ -4931,7 +4929,7 @@
         <v>118</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>262</v>
@@ -4940,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>227</v>
@@ -4949,8 +4947,8 @@
         <v>228</v>
       </c>
       <c r="M30" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>286</v>
@@ -4960,7 +4958,7 @@
       </c>
       <c r="P30" s="24" t="str">
         <f ca="1">TEXT(TODAY()+54, "mm/dd/yy")</f>
-        <v>12/02/18</v>
+        <v>01/12/19</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>286</v>
@@ -5013,7 +5011,7 @@
         <v>120</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>263</v>
@@ -5022,7 +5020,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>229</v>
@@ -5031,8 +5029,8 @@
         <v>230</v>
       </c>
       <c r="M31" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>286</v>
@@ -5042,7 +5040,7 @@
       </c>
       <c r="P31" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>286</v>
@@ -5095,7 +5093,7 @@
         <v>122</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>264</v>
@@ -5104,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>19</v>
@@ -5113,8 +5111,8 @@
         <v>20</v>
       </c>
       <c r="M32" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N32" s="27" t="s">
         <v>289</v>
@@ -5124,17 +5122,17 @@
       </c>
       <c r="P32" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>10/09/18</v>
+        <v>11/19/18</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R32" s="11" t="s">
         <v>290</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U32" s="7" t="s">
         <v>52</v>
@@ -5189,7 +5187,7 @@
         <v>124</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>265</v>
@@ -5198,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>23</v>
@@ -5207,8 +5205,8 @@
         <v>24</v>
       </c>
       <c r="M33" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N33" s="27" t="s">
         <v>288</v>
@@ -5218,7 +5216,7 @@
       </c>
       <c r="P33" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>288</v>
@@ -5281,7 +5279,7 @@
         <v>126</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>266</v>
@@ -5290,7 +5288,7 @@
         <v>18</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>181</v>
@@ -5299,8 +5297,8 @@
         <v>182</v>
       </c>
       <c r="M34" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N34" s="27" t="s">
         <v>286</v>
@@ -5310,10 +5308,10 @@
       </c>
       <c r="P34" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R34" s="11" t="s">
         <v>292</v>
@@ -5373,7 +5371,7 @@
         <v>128</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>267</v>
@@ -5382,7 +5380,7 @@
         <v>18</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>183</v>
@@ -5391,8 +5389,8 @@
         <v>184</v>
       </c>
       <c r="M35" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N35" s="27" t="s">
         <v>288</v>
@@ -5402,7 +5400,7 @@
       </c>
       <c r="P35" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>288</v>
@@ -5465,7 +5463,7 @@
         <v>130</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>268</v>
@@ -5474,7 +5472,7 @@
         <v>18</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>229</v>
@@ -5483,8 +5481,8 @@
         <v>230</v>
       </c>
       <c r="M36" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N36" s="27" t="s">
         <v>288</v>
@@ -5494,7 +5492,7 @@
       </c>
       <c r="P36" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>10/10/18</v>
+        <v>11/20/18</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>288</v>
@@ -5557,7 +5555,7 @@
         <v>132</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>269</v>
@@ -5566,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>187</v>
@@ -5575,8 +5573,8 @@
         <v>188</v>
       </c>
       <c r="M37" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N37" s="27" t="s">
         <v>288</v>
@@ -5585,8 +5583,8 @@
         <v>269</v>
       </c>
       <c r="P37" s="24" t="str">
-        <f t="shared" ref="P37:P42" ca="1" si="2">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>10/11/18</v>
+        <f ca="1" ref="P37:P42" si="2" t="shared">TEXT(TODAY()+2, "mm/dd/yy")</f>
+        <v>11/21/18</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>51</v>
@@ -5649,7 +5647,7 @@
         <v>134</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>264</v>
@@ -5658,7 +5656,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>191</v>
@@ -5667,8 +5665,8 @@
         <v>192</v>
       </c>
       <c r="M38" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N38" s="27" t="s">
         <v>288</v>
@@ -5677,8 +5675,8 @@
         <v>264</v>
       </c>
       <c r="P38" s="24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10/11/18</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>288</v>
@@ -5741,7 +5739,7 @@
         <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>268</v>
@@ -5750,7 +5748,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>193</v>
@@ -5759,8 +5757,8 @@
         <v>194</v>
       </c>
       <c r="M39" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N39" s="27" t="s">
         <v>288</v>
@@ -5769,11 +5767,11 @@
         <v>268</v>
       </c>
       <c r="P39" s="24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10/11/18</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R39" s="11" t="s">
         <v>294</v>
@@ -5833,7 +5831,7 @@
         <v>138</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>265</v>
@@ -5842,7 +5840,7 @@
         <v>18</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>195</v>
@@ -5851,8 +5849,8 @@
         <v>196</v>
       </c>
       <c r="M40" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N40" s="27" t="s">
         <v>288</v>
@@ -5861,11 +5859,11 @@
         <v>265</v>
       </c>
       <c r="P40" s="24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10/11/18</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R40" s="11" t="s">
         <v>291</v>
@@ -5915,7 +5913,7 @@
         <v>140</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>266</v>
@@ -5924,7 +5922,7 @@
         <v>18</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>197</v>
@@ -5933,8 +5931,8 @@
         <v>198</v>
       </c>
       <c r="M41" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N41" s="27" t="s">
         <v>288</v>
@@ -5943,8 +5941,8 @@
         <v>266</v>
       </c>
       <c r="P41" s="24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10/11/18</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>289</v>
@@ -5954,7 +5952,7 @@
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="6"/>
@@ -5999,7 +5997,7 @@
         <v>142</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>267</v>
@@ -6008,7 +6006,7 @@
         <v>18</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>199</v>
@@ -6017,8 +6015,8 @@
         <v>200</v>
       </c>
       <c r="M42" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N42" s="27" t="s">
         <v>288</v>
@@ -6027,18 +6025,18 @@
         <v>267</v>
       </c>
       <c r="P42" s="24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10/11/18</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>11/21/18</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>291</v>
       </c>
       <c r="S42" s="6"/>
       <c r="T42" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
@@ -6083,7 +6081,7 @@
         <v>144</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>268</v>
@@ -6092,7 +6090,7 @@
         <v>18</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>201</v>
@@ -6101,8 +6099,8 @@
         <v>202</v>
       </c>
       <c r="M43" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N43" s="27" t="s">
         <v>286</v>
@@ -6112,7 +6110,7 @@
       </c>
       <c r="P43" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>286</v>
@@ -6122,7 +6120,7 @@
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
@@ -6167,7 +6165,7 @@
         <v>146</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>270</v>
@@ -6176,7 +6174,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>203</v>
@@ -6185,8 +6183,8 @@
         <v>204</v>
       </c>
       <c r="M44" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N44" s="27" t="s">
         <v>286</v>
@@ -6196,7 +6194,7 @@
       </c>
       <c r="P44" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>286</v>
@@ -6206,7 +6204,7 @@
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -6251,7 +6249,7 @@
         <v>148</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>265</v>
@@ -6260,7 +6258,7 @@
         <v>18</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>231</v>
@@ -6269,8 +6267,8 @@
         <v>232</v>
       </c>
       <c r="M45" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N45" s="27" t="s">
         <v>288</v>
@@ -6280,10 +6278,10 @@
       </c>
       <c r="P45" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>291</v>
@@ -6332,7 +6330,7 @@
         <v>150</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>271</v>
@@ -6341,7 +6339,7 @@
         <v>18</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>233</v>
@@ -6350,8 +6348,8 @@
         <v>234</v>
       </c>
       <c r="M46" s="24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10/09/18</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>11/19/18</v>
       </c>
       <c r="N46" s="27" t="s">
         <v>288</v>
@@ -6361,7 +6359,7 @@
       </c>
       <c r="P46" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>10/12/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>51</v>
@@ -6371,7 +6369,7 @@
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -6416,7 +6414,7 @@
         <v>152</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>272</v>
@@ -6425,7 +6423,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>21</v>
@@ -6435,7 +6433,7 @@
       </c>
       <c r="M47" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "dd/mm/yy")</f>
-        <v>10/10/18</v>
+        <v>20/11/18</v>
       </c>
       <c r="N47" s="27" t="s">
         <v>51</v>
@@ -6445,10 +6443,10 @@
       </c>
       <c r="P47" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "dd/mm/yy")</f>
-        <v>10/10/18</v>
+        <v>20/11/18</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>290</v>
@@ -6471,7 +6469,7 @@
         <v>56</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
@@ -6510,7 +6508,7 @@
         <v>154</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>273</v>
@@ -6519,7 +6517,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>183</v>
@@ -6528,8 +6526,8 @@
         <v>184</v>
       </c>
       <c r="M48" s="24" t="str">
-        <f t="shared" ref="M48:M61" ca="1" si="3">TEXT(TODAY()+1, "dd/mm/yy")</f>
-        <v>10/10/18</v>
+        <f ca="1" ref="M48:M61" si="3" t="shared">TEXT(TODAY()+1, "dd/mm/yy")</f>
+        <v>20/11/18</v>
       </c>
       <c r="N48" s="27" t="s">
         <v>288</v>
@@ -6539,7 +6537,7 @@
       </c>
       <c r="P48" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "dd/mm/yy")</f>
-        <v>11/10/18</v>
+        <v>21/11/18</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>288</v>
@@ -6602,7 +6600,7 @@
         <v>156</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>274</v>
@@ -6611,7 +6609,7 @@
         <v>18</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>187</v>
@@ -6620,8 +6618,8 @@
         <v>188</v>
       </c>
       <c r="M49" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N49" s="27" t="s">
         <v>288</v>
@@ -6631,7 +6629,7 @@
       </c>
       <c r="P49" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>12/10/18</v>
+        <v>22/11/18</v>
       </c>
       <c r="Q49" s="27" t="s">
         <v>288</v>
@@ -6694,7 +6692,7 @@
         <v>158</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>275</v>
@@ -6703,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>191</v>
@@ -6712,8 +6710,8 @@
         <v>192</v>
       </c>
       <c r="M50" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N50" s="27" t="s">
         <v>288</v>
@@ -6723,7 +6721,7 @@
       </c>
       <c r="P50" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>12/10/18</v>
+        <v>22/11/18</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>288</v>
@@ -6786,7 +6784,7 @@
         <v>160</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>276</v>
@@ -6795,7 +6793,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>193</v>
@@ -6804,8 +6802,8 @@
         <v>194</v>
       </c>
       <c r="M51" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N51" s="27" t="s">
         <v>288</v>
@@ -6815,10 +6813,10 @@
       </c>
       <c r="P51" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>12/10/18</v>
+        <v>22/11/18</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>294</v>
@@ -6878,7 +6876,7 @@
         <v>162</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>277</v>
@@ -6887,7 +6885,7 @@
         <v>18</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>195</v>
@@ -6896,8 +6894,8 @@
         <v>196</v>
       </c>
       <c r="M52" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N52" s="27" t="s">
         <v>288</v>
@@ -6907,10 +6905,10 @@
       </c>
       <c r="P52" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>12/10/18</v>
+        <v>22/11/18</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R52" s="11" t="s">
         <v>291</v>
@@ -6970,7 +6968,7 @@
         <v>164</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>278</v>
@@ -6979,7 +6977,7 @@
         <v>18</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>201</v>
@@ -6988,8 +6986,8 @@
         <v>202</v>
       </c>
       <c r="M53" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N53" s="27" t="s">
         <v>286</v>
@@ -6999,7 +6997,7 @@
       </c>
       <c r="P53" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>13/10/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>286</v>
@@ -7062,7 +7060,7 @@
         <v>166</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>273</v>
@@ -7071,7 +7069,7 @@
         <v>18</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>203</v>
@@ -7080,8 +7078,8 @@
         <v>204</v>
       </c>
       <c r="M54" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N54" s="27" t="s">
         <v>286</v>
@@ -7091,7 +7089,7 @@
       </c>
       <c r="P54" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>13/10/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>286</v>
@@ -7154,7 +7152,7 @@
         <v>168</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>279</v>
@@ -7163,7 +7161,7 @@
         <v>18</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>231</v>
@@ -7172,8 +7170,8 @@
         <v>232</v>
       </c>
       <c r="M55" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N55" s="27" t="s">
         <v>288</v>
@@ -7183,10 +7181,10 @@
       </c>
       <c r="P55" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>13/10/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R55" s="11" t="s">
         <v>291</v>
@@ -7236,7 +7234,7 @@
         <v>170</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>280</v>
@@ -7245,7 +7243,7 @@
         <v>18</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>233</v>
@@ -7254,8 +7252,8 @@
         <v>234</v>
       </c>
       <c r="M56" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N56" s="27" t="s">
         <v>288</v>
@@ -7265,7 +7263,7 @@
       </c>
       <c r="P56" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>13/10/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>51</v>
@@ -7318,7 +7316,7 @@
         <v>172</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>281</v>
@@ -7327,7 +7325,7 @@
         <v>18</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>235</v>
@@ -7336,8 +7334,8 @@
         <v>236</v>
       </c>
       <c r="M57" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>288</v>
@@ -7347,10 +7345,10 @@
       </c>
       <c r="P57" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>13/10/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R57" s="11" t="s">
         <v>294</v>
@@ -7400,7 +7398,7 @@
         <v>174</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>282</v>
@@ -7409,7 +7407,7 @@
         <v>18</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>213</v>
@@ -7418,8 +7416,8 @@
         <v>214</v>
       </c>
       <c r="M58" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>286</v>
@@ -7429,7 +7427,7 @@
       </c>
       <c r="P58" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>14/10/18</v>
+        <v>24/11/18</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>286</v>
@@ -7482,7 +7480,7 @@
         <v>176</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>283</v>
@@ -7491,7 +7489,7 @@
         <v>18</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>223</v>
@@ -7500,8 +7498,8 @@
         <v>224</v>
       </c>
       <c r="M59" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>288</v>
@@ -7511,7 +7509,7 @@
       </c>
       <c r="P59" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>14/10/18</v>
+        <v>24/11/18</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>288</v>
@@ -7564,7 +7562,7 @@
         <v>178</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>284</v>
@@ -7573,7 +7571,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>237</v>
@@ -7582,8 +7580,8 @@
         <v>238</v>
       </c>
       <c r="M60" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>288</v>
@@ -7593,7 +7591,7 @@
       </c>
       <c r="P60" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>14/10/18</v>
+        <v>24/11/18</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>288</v>
@@ -7646,7 +7644,7 @@
         <v>180</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>285</v>
@@ -7655,7 +7653,7 @@
         <v>18</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>239</v>
@@ -7664,8 +7662,8 @@
         <v>240</v>
       </c>
       <c r="M61" s="24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10/10/18</v>
+        <f ca="1" si="3" t="shared"/>
+        <v>20/11/18</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>288</v>
@@ -7675,10 +7673,10 @@
       </c>
       <c r="P61" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>14/10/18</v>
+        <v>24/11/18</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R61" s="11" t="s">
         <v>292</v>
@@ -7797,15 +7795,15 @@
       <c r="AP63" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -7813,24 +7811,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="63.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="63.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
@@ -7897,16 +7895,16 @@
         <v>43381</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>25</v>
@@ -7915,31 +7913,31 @@
         <v>25</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7947,13 +7945,13 @@
         <v>43381</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" s="32">
         <v>43381</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -7975,22 +7973,22 @@
         <v>43381</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="32">
         <v>43384</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>241</v>
@@ -7999,31 +7997,31 @@
         <v>241</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="R4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -8037,16 +8035,16 @@
         <v>43384</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>242</v>
@@ -8055,31 +8053,31 @@
         <v>242</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="M5" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="R5" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -8126,13 +8124,13 @@
         <v>286</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>244</v>
@@ -8141,31 +8139,31 @@
         <v>244</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="R7" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -8212,13 +8210,13 @@
         <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>245</v>
@@ -8227,31 +8225,31 @@
         <v>245</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="M9" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="R9" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -8268,13 +8266,13 @@
         <v>288</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>246</v>
@@ -8283,31 +8281,31 @@
         <v>246</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="M10" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="R10" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -8321,16 +8319,16 @@
         <v>43385</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>247</v>
@@ -8339,54 +8337,54 @@
         <v>247</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="M11" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="R11" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>288</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>248</v>
@@ -8395,54 +8393,54 @@
         <v>248</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="R12" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>288</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>289</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>249</v>
@@ -8451,54 +8449,54 @@
         <v>249</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="R13" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>288</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>250</v>
@@ -8507,54 +8505,54 @@
         <v>250</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="R14" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>286</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>251</v>
@@ -8563,54 +8561,54 @@
         <v>251</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="R15" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>286</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>252</v>
@@ -8619,35 +8617,35 @@
         <v>252</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="M16" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/AVIS/TestData/AVIS_GUITestData_CreateReservation.xlsx
+++ b/src/AVIS/TestData/AVIS_GUITestData_CreateReservation.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkhoday\git\ABG\src\AVIS\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="9735" windowWidth="24000" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Avis_GUI" r:id="rId1" sheetId="1"/>
-    <sheet name="Reservation_Details" r:id="rId2" sheetId="2"/>
+    <sheet name="Avis_GUI" sheetId="1" r:id="rId1"/>
+    <sheet name="Reservation_Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Avis_GUI!$A$1:$AP$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Avis_GUI!$A$1:$AP$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
     <author>Doris Anto Pauline</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="R39" shapeId="0">
+    <comment ref="R39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="R51" shapeId="0">
+    <comment ref="R51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="574">
   <si>
     <t>REGION</t>
   </si>
@@ -1321,18 +1321,6 @@
     <t>Reservation created successfully. Reservation Number: 09899847US6</t>
   </si>
   <si>
-    <t>Reservation created successfully. Reservation Number: 09899870US1</t>
-  </si>
-  <si>
-    <t>09899870US1</t>
-  </si>
-  <si>
-    <t>$215.00</t>
-  </si>
-  <si>
-    <t>$272.71</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -1342,9 +1330,6 @@
     <t>09899883US0</t>
   </si>
   <si>
-    <t>09899885US2</t>
-  </si>
-  <si>
     <t>8B</t>
   </si>
   <si>
@@ -1357,89 +1342,479 @@
     <t>$24.99</t>
   </si>
   <si>
-    <t>$27.87</t>
-  </si>
-  <si>
-    <t>Reservation created successfully. Reservation Number: 09899898US1</t>
-  </si>
-  <si>
-    <t>09899898US1</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>09899904US0</t>
+  </si>
+  <si>
+    <t>$49.98</t>
+  </si>
+  <si>
+    <t>$69.64</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 09899925US0</t>
+  </si>
+  <si>
+    <t>09899925US0</t>
+  </si>
+  <si>
+    <t>$59.98</t>
+  </si>
+  <si>
+    <t>$66.64</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 09899926US1</t>
+  </si>
+  <si>
+    <t>09899926US1</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>$107.98</t>
+  </si>
+  <si>
+    <t>$123.32</t>
+  </si>
+  <si>
+    <t>Avis18nov$</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>11/22/18</t>
+  </si>
+  <si>
+    <t>$34.00</t>
+  </si>
+  <si>
+    <t>$58.43</t>
+  </si>
+  <si>
+    <t>11/24/18</t>
+  </si>
+  <si>
+    <t>11/25/18</t>
+  </si>
+  <si>
+    <t>$29.94</t>
+  </si>
+  <si>
+    <t>11/23/18</t>
+  </si>
+  <si>
+    <t>10289294US1</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10317611US3</t>
+  </si>
+  <si>
+    <t>10317611US3</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10342603US5</t>
+  </si>
+  <si>
+    <t>10342603US5</t>
+  </si>
+  <si>
     <t>$52.00</t>
   </si>
   <si>
-    <t>$64.04</t>
-  </si>
-  <si>
-    <t>09899904US0</t>
-  </si>
-  <si>
-    <t>$49.98</t>
-  </si>
-  <si>
-    <t>$69.64</t>
-  </si>
-  <si>
-    <t>Reservation created successfully. Reservation Number: 09899925US0</t>
-  </si>
-  <si>
-    <t>09899925US0</t>
-  </si>
-  <si>
-    <t>$59.98</t>
-  </si>
-  <si>
-    <t>$66.64</t>
-  </si>
-  <si>
-    <t>Reservation created successfully. Reservation Number: 09899926US1</t>
-  </si>
-  <si>
-    <t>09899926US1</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>$107.98</t>
-  </si>
-  <si>
-    <t>$123.32</t>
-  </si>
-  <si>
-    <t>Reservation created successfully. Reservation Number: 09899927US2</t>
-  </si>
-  <si>
-    <t>09899927US2</t>
-  </si>
-  <si>
-    <t>Reservation created successfully. Reservation Number: 09899937US5</t>
-  </si>
-  <si>
-    <t>09899937US5</t>
-  </si>
-  <si>
-    <t>Reservation created successfully. Reservation Number: 09899940US1</t>
-  </si>
-  <si>
-    <t>09899940US1</t>
-  </si>
-  <si>
-    <t>Avis18nov$</t>
+    <t>$13.95</t>
+  </si>
+  <si>
+    <t>$82.18</t>
+  </si>
+  <si>
+    <t>11/21/18</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10342697US1</t>
+  </si>
+  <si>
+    <t>10342697US1</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10342707US4</t>
+  </si>
+  <si>
+    <t>10342707US4</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10342748US3</t>
+  </si>
+  <si>
+    <t>10342748US3</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>$115.51</t>
+  </si>
+  <si>
+    <t>$163.46</t>
+  </si>
+  <si>
+    <t>10342913US0</t>
+  </si>
+  <si>
+    <t>$147.05</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10342949US1</t>
+  </si>
+  <si>
+    <t>10342949US1</t>
+  </si>
+  <si>
+    <t>$252.17</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10342985CA2</t>
+  </si>
+  <si>
+    <t>10342985CA2</t>
+  </si>
+  <si>
+    <t>0 Days 8 Hours</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>$37.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NA</t>
+  </si>
+  <si>
+    <t>10343039CA0</t>
+  </si>
+  <si>
+    <t>$140.00</t>
+  </si>
+  <si>
+    <t>$152.02</t>
+  </si>
+  <si>
+    <t>10343120CA4</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>$141.00</t>
+  </si>
+  <si>
+    <t>$207.84</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10343165CA0</t>
+  </si>
+  <si>
+    <t>10343165CA0</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>$750.00</t>
+  </si>
+  <si>
+    <t>$795.03</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10343231CA3</t>
+  </si>
+  <si>
+    <t>10343231CA3</t>
+  </si>
+  <si>
+    <t>$171.00</t>
+  </si>
+  <si>
+    <t>$232.19</t>
+  </si>
+  <si>
+    <t>11/26/18</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344224US2</t>
+  </si>
+  <si>
+    <t>10344224US2</t>
+  </si>
+  <si>
+    <t>IZ</t>
+  </si>
+  <si>
+    <t>$52.06</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344251US1</t>
+  </si>
+  <si>
+    <t>10344251US1</t>
+  </si>
+  <si>
+    <t>11/27/18</t>
+  </si>
+  <si>
+    <t>$46.29</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344272US1</t>
+  </si>
+  <si>
+    <t>10344272US1</t>
+  </si>
+  <si>
+    <t>$65.99</t>
+  </si>
+  <si>
+    <t>$99.24</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344299US0</t>
+  </si>
+  <si>
+    <t>10344299US0</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>$54.00</t>
+  </si>
+  <si>
+    <t>$74.87</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344386US3</t>
+  </si>
+  <si>
+    <t>10344386US3</t>
+  </si>
+  <si>
+    <t>$122.93</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344425CA0</t>
+  </si>
+  <si>
+    <t>10344425CA0</t>
+  </si>
+  <si>
+    <t>$28.00</t>
+  </si>
+  <si>
+    <t>$16.00</t>
+  </si>
+  <si>
+    <t>$38.95</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344440CA1</t>
+  </si>
+  <si>
+    <t>10344440CA1</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344449CA3</t>
+  </si>
+  <si>
+    <t>10344449CA3</t>
+  </si>
+  <si>
+    <t>$150.00</t>
+  </si>
+  <si>
+    <t>$162.18</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344464CA4</t>
+  </si>
+  <si>
+    <t>10344464CA4</t>
+  </si>
+  <si>
+    <t>$149.58</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344503CA1</t>
+  </si>
+  <si>
+    <t>10344503CA1</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>$132.00</t>
+  </si>
+  <si>
+    <t>$39.00</t>
+  </si>
+  <si>
+    <t>$182.28</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344767US6</t>
+  </si>
+  <si>
+    <t>10344767US6</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344788US6</t>
+  </si>
+  <si>
+    <t>10344788US6</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344806US3</t>
+  </si>
+  <si>
+    <t>10344806US3</t>
+  </si>
+  <si>
+    <t>$96.12</t>
+  </si>
+  <si>
+    <t>$138.74</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344851CA6</t>
+  </si>
+  <si>
+    <t>10344851CA6</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344864CA5</t>
+  </si>
+  <si>
+    <t>10344864CA5</t>
+  </si>
+  <si>
+    <t>3 Days 2 Hours</t>
+  </si>
+  <si>
+    <t>$176.00</t>
+  </si>
+  <si>
+    <t>$243.03</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344875CA2</t>
+  </si>
+  <si>
+    <t>10344875CA2</t>
+  </si>
+  <si>
+    <t>4 Days 0 Hours</t>
+  </si>
+  <si>
+    <t>$160.00</t>
+  </si>
+  <si>
+    <t>$195.51</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344899CA5</t>
+  </si>
+  <si>
+    <t>10344899CA5</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>11/29/18</t>
+  </si>
+  <si>
+    <t>7 Days 1 Hour</t>
+  </si>
+  <si>
+    <t>$121.01</t>
+  </si>
+  <si>
+    <t>$172.28</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344920CA5</t>
+  </si>
+  <si>
+    <t>10344920CA5</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>01/15/19</t>
+  </si>
+  <si>
+    <t>54 Days 0 Hours</t>
+  </si>
+  <si>
+    <t>$1,328.58</t>
+  </si>
+  <si>
+    <t>$1,960.04</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344929CA0</t>
+  </si>
+  <si>
+    <t>10344929CA0</t>
+  </si>
+  <si>
+    <t>$24.00</t>
+  </si>
+  <si>
+    <t>$31.47</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344953AR3</t>
+  </si>
+  <si>
+    <t>10344953AR3</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10344998AR6</t>
+  </si>
+  <si>
+    <t>10344998AR6</t>
+  </si>
+  <si>
+    <t>Reservation created successfully. Reservation Number: 10345019AR6</t>
+  </si>
+  <si>
+    <t>10345019AR6</t>
+  </si>
+  <si>
+    <t>2G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1540,80 +1915,80 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="14" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1630,10 +2005,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1668,7 +2043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1703,7 +2078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1797,21 +2172,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1828,7 +2203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1880,68 +2255,69 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="52.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="98.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="60.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="6.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="8.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="16.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="17" width="16.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="17" width="14.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="17" width="14.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="18.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="8.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="6.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="28.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="18.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="3" width="13.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="3" width="14.0" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="3" width="21.7109375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="3" width="62.7109375" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="43" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="3" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="52.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="98.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="60.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="16.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="21.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="62.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -2098,7 +2474,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>19</v>
@@ -2108,7 +2484,7 @@
       </c>
       <c r="M2" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>289</v>
@@ -2118,7 +2494,7 @@
       </c>
       <c r="P2" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>327</v>
@@ -2133,9 +2509,7 @@
       <c r="U2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="30" t="s">
-        <v>302</v>
-      </c>
+      <c r="V2" s="30"/>
       <c r="W2" s="20" t="s">
         <v>51</v>
       </c>
@@ -2148,10 +2522,10 @@
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
       <c r="AB2" s="6" t="s">
-        <v>412</v>
+        <v>489</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>339</v>
+        <v>490</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>340</v>
@@ -2163,16 +2537,16 @@
         <v>25</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="AI2" s="6" t="s">
         <v>342</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>344</v>
@@ -2184,13 +2558,13 @@
         <v>345</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -2201,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -2222,7 +2596,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>21</v>
@@ -2232,7 +2606,7 @@
       </c>
       <c r="M3" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>335</v>
@@ -2242,7 +2616,7 @@
       </c>
       <c r="P3" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q3" s="27" t="s">
         <v>334</v>
@@ -2270,7 +2644,9 @@
       <c r="Z3" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="AA3" s="16"/>
+      <c r="AA3" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -2295,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
@@ -2316,7 +2692,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>23</v>
@@ -2326,7 +2702,7 @@
       </c>
       <c r="M4" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="N4" s="28" t="s">
         <v>333</v>
@@ -2336,7 +2712,7 @@
       </c>
       <c r="P4" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>333</v>
@@ -2364,7 +2740,7 @@
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>351</v>
@@ -2403,10 +2779,10 @@
         <v>356</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -2417,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -2438,7 +2814,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>181</v>
@@ -2448,7 +2824,7 @@
       </c>
       <c r="M5" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>11/23/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>51</v>
@@ -2458,7 +2834,7 @@
       </c>
       <c r="P5" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "mm/dd/yy")</f>
-        <v>11/24/18</v>
+        <v>11/27/18</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>330</v>
@@ -2486,10 +2862,10 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="AD5" s="6" t="s">
         <v>352</v>
@@ -2501,16 +2877,16 @@
         <v>242</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>354</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="AK5" s="6" t="s">
         <v>344</v>
@@ -2522,13 +2898,13 @@
         <v>345</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>314</v>
+        <v>493</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -2539,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -2560,7 +2936,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>183</v>
@@ -2570,7 +2946,7 @@
       </c>
       <c r="M6" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>288</v>
@@ -2580,7 +2956,7 @@
       </c>
       <c r="P6" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>11/23/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>288</v>
@@ -2610,10 +2986,10 @@
         <v>57</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>376</v>
@@ -2625,34 +3001,34 @@
         <v>243</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="AI6" s="6" t="s">
         <v>354</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>427</v>
+        <v>499</v>
       </c>
       <c r="AK6" s="6" t="s">
         <v>344</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="AM6" s="6" t="s">
         <v>345</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -2663,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
@@ -2684,7 +3060,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>185</v>
@@ -2694,7 +3070,7 @@
       </c>
       <c r="M7" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>286</v>
@@ -2704,7 +3080,7 @@
       </c>
       <c r="P7" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "mm/dd/yy")</f>
-        <v>11/24/18</v>
+        <v>11/27/18</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>286</v>
@@ -2734,10 +3110,10 @@
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AD7" s="6" t="s">
         <v>352</v>
@@ -2752,13 +3128,13 @@
         <v>401</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AI7" s="6" t="s">
         <v>364</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AK7" s="6" t="s">
         <v>366</v>
@@ -2770,13 +3146,13 @@
         <v>345</v>
       </c>
       <c r="AN7" s="6" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AO7" s="6" t="s">
         <v>314</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -2787,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -2808,7 +3184,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>187</v>
@@ -2818,7 +3194,7 @@
       </c>
       <c r="M8" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>286</v>
@@ -2828,7 +3204,7 @@
       </c>
       <c r="P8" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "mm/dd/yy")</f>
-        <v>11/24/18</v>
+        <v>11/27/18</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>286</v>
@@ -2858,10 +3234,10 @@
         <v>310</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AD8" s="6" t="s">
         <v>376</v>
@@ -2876,13 +3252,13 @@
         <v>401</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AI8" s="6" t="s">
         <v>364</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AK8" s="6" t="s">
         <v>344</v>
@@ -2894,13 +3270,13 @@
         <v>345</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AO8" s="6" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -2911,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -2932,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>189</v>
@@ -2942,7 +3318,7 @@
       </c>
       <c r="M9" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>51</v>
@@ -2952,7 +3328,7 @@
       </c>
       <c r="P9" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>11/23/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>51</v>
@@ -2980,13 +3356,13 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AE9" s="6" t="s">
         <v>245</v>
@@ -2998,13 +3374,13 @@
         <v>386</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AI9" s="6" t="s">
         <v>364</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AK9" s="6" t="s">
         <v>344</v>
@@ -3016,13 +3392,13 @@
         <v>345</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -3033,7 +3409,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
@@ -3054,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>191</v>
@@ -3063,8 +3439,8 @@
         <v>192</v>
       </c>
       <c r="M10" s="24" t="str">
-        <f ca="1" ref="M10:M46" si="0" t="shared">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>11/19/18</v>
+        <f t="shared" ref="M10:M46" ca="1" si="0">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>11/22/18</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>288</v>
@@ -3073,8 +3449,8 @@
         <v>246</v>
       </c>
       <c r="P10" s="24" t="str">
-        <f ca="1" ref="P10:P12" si="1" t="shared">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <f t="shared" ref="P10:P12" ca="1" si="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
+        <v>11/24/18</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>288</v>
@@ -3102,10 +3478,10 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>376</v>
@@ -3117,16 +3493,16 @@
         <v>246</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="AI10" s="6" t="s">
         <v>364</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>377</v>
+        <v>504</v>
       </c>
       <c r="AK10" s="6" t="s">
         <v>344</v>
@@ -3138,13 +3514,13 @@
         <v>345</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>378</v>
+        <v>505</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="AP10" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -3155,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
@@ -3176,7 +3552,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>193</v>
@@ -3185,8 +3561,8 @@
         <v>194</v>
       </c>
       <c r="M11" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N11" s="28" t="s">
         <v>288</v>
@@ -3195,8 +3571,8 @@
         <v>247</v>
       </c>
       <c r="P11" s="24" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>326</v>
@@ -3224,7 +3600,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6" t="s">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>381</v>
@@ -3239,10 +3615,10 @@
         <v>247</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="AI11" s="6" t="s">
         <v>364</v>
@@ -3263,10 +3639,10 @@
         <v>383</v>
       </c>
       <c r="AO11" s="29" t="s">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="AP11" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -3277,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
@@ -3298,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>195</v>
@@ -3307,8 +3683,8 @@
         <v>196</v>
       </c>
       <c r="M12" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N12" s="28" t="s">
         <v>288</v>
@@ -3317,8 +3693,8 @@
         <v>248</v>
       </c>
       <c r="P12" s="24" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>332</v>
@@ -3346,7 +3722,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>339</v>
@@ -3361,10 +3737,10 @@
         <v>248</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="AI12" s="6" t="s">
         <v>364</v>
@@ -3382,12 +3758,14 @@
         <v>345</v>
       </c>
       <c r="AN12" s="6" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="AO12" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP12" s="6"/>
+        <v>531</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3397,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -3418,7 +3796,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>197</v>
@@ -3428,7 +3806,7 @@
       </c>
       <c r="M13" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="N13" s="28" t="s">
         <v>288</v>
@@ -3438,7 +3816,7 @@
       </c>
       <c r="P13" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>289</v>
@@ -3465,21 +3843,51 @@
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
+      <c r="AB13" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3489,7 +3897,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
@@ -3510,7 +3918,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>199</v>
@@ -3520,7 +3928,7 @@
       </c>
       <c r="M14" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>288</v>
@@ -3530,7 +3938,7 @@
       </c>
       <c r="P14" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>11/23/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>331</v>
@@ -3557,21 +3965,51 @@
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
+      <c r="AB14" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3581,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
@@ -3602,7 +4040,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>201</v>
@@ -3611,8 +4049,8 @@
         <v>202</v>
       </c>
       <c r="M15" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N15" s="27" t="s">
         <v>286</v>
@@ -3622,7 +4060,7 @@
       </c>
       <c r="P15" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>286</v>
@@ -3653,21 +4091,51 @@
         <v>312</v>
       </c>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
+      <c r="AB15" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AL15" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM15" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3677,7 +4145,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -3698,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>203</v>
@@ -3708,7 +4176,7 @@
       </c>
       <c r="M16" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>286</v>
@@ -3718,7 +4186,7 @@
       </c>
       <c r="P16" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>11/23/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>286</v>
@@ -3769,7 +4237,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -3790,7 +4258,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>19</v>
@@ -3799,8 +4267,8 @@
         <v>20</v>
       </c>
       <c r="M17" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>286</v>
@@ -3810,7 +4278,7 @@
       </c>
       <c r="P17" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>11/19/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>287</v>
@@ -3839,21 +4307,51 @@
         <v>313</v>
       </c>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
+      <c r="AB17" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3863,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
@@ -3884,7 +4382,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>185</v>
@@ -3893,8 +4391,8 @@
         <v>186</v>
       </c>
       <c r="M18" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>286</v>
@@ -3904,7 +4402,7 @@
       </c>
       <c r="P18" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>11/19/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>286</v>
@@ -3955,7 +4453,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -3976,7 +4474,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>205</v>
@@ -3985,8 +4483,8 @@
         <v>206</v>
       </c>
       <c r="M19" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>286</v>
@@ -3996,7 +4494,7 @@
       </c>
       <c r="P19" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>286</v>
@@ -4036,7 +4534,9 @@
       <c r="AL19" s="6"/>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
+      <c r="AO19" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
@@ -4047,7 +4547,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
@@ -4068,7 +4568,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>207</v>
@@ -4077,8 +4577,8 @@
         <v>208</v>
       </c>
       <c r="M20" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>286</v>
@@ -4088,7 +4588,7 @@
       </c>
       <c r="P20" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>286</v>
@@ -4115,21 +4615,51 @@
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
+      <c r="AB20" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -4139,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
@@ -4160,7 +4690,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>209</v>
@@ -4169,8 +4699,8 @@
         <v>210</v>
       </c>
       <c r="M21" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>286</v>
@@ -4180,7 +4710,7 @@
       </c>
       <c r="P21" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>286</v>
@@ -4207,21 +4737,51 @@
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
+      <c r="AB21" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO21" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -4231,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
@@ -4252,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>211</v>
@@ -4261,8 +4821,8 @@
         <v>212</v>
       </c>
       <c r="M22" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>286</v>
@@ -4272,7 +4832,7 @@
       </c>
       <c r="P22" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <v>11/24/18</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>288</v>
@@ -4299,21 +4859,51 @@
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
+      <c r="AB22" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO22" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4323,7 +4913,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -4344,7 +4934,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>213</v>
@@ -4353,8 +4943,8 @@
         <v>214</v>
       </c>
       <c r="M23" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>286</v>
@@ -4364,7 +4954,7 @@
       </c>
       <c r="P23" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>286</v>
@@ -4391,21 +4981,51 @@
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
+      <c r="AB23" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -4415,7 +5035,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
@@ -4436,7 +5056,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>215</v>
@@ -4445,8 +5065,8 @@
         <v>216</v>
       </c>
       <c r="M24" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>286</v>
@@ -4456,7 +5076,7 @@
       </c>
       <c r="P24" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>286</v>
@@ -4483,21 +5103,51 @@
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
+      <c r="AB24" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -4507,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
@@ -4528,7 +5178,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>217</v>
@@ -4537,8 +5187,8 @@
         <v>218</v>
       </c>
       <c r="M25" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>286</v>
@@ -4548,7 +5198,7 @@
       </c>
       <c r="P25" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>289</v>
@@ -4558,28 +5208,68 @@
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
+      <c r="U25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y25" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
+      <c r="AB25" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -4589,7 +5279,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -4610,7 +5300,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>219</v>
@@ -4619,8 +5309,8 @@
         <v>220</v>
       </c>
       <c r="M26" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>286</v>
@@ -4630,7 +5320,7 @@
       </c>
       <c r="P26" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "mm/dd/yy")</f>
-        <v>11/23/18</v>
+        <v>11/26/18</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>286</v>
@@ -4640,28 +5330,68 @@
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
+      <c r="U26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="W26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
+      <c r="AB26" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AO26" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -4671,7 +5401,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
@@ -4692,7 +5422,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>221</v>
@@ -4701,8 +5431,8 @@
         <v>222</v>
       </c>
       <c r="M27" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>286</v>
@@ -4712,7 +5442,7 @@
       </c>
       <c r="P27" s="24" t="str">
         <f ca="1">TEXT(TODAY()+6, "mm/dd/yy")</f>
-        <v>11/25/18</v>
+        <v>11/28/18</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>286</v>
@@ -4722,11 +5452,21 @@
       </c>
       <c r="S27" s="6"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
+      <c r="U27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="W27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y27" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
@@ -4753,7 +5493,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>17</v>
@@ -4774,7 +5514,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>223</v>
@@ -4783,8 +5523,8 @@
         <v>224</v>
       </c>
       <c r="M28" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>286</v>
@@ -4794,7 +5534,7 @@
       </c>
       <c r="P28" s="24" t="str">
         <f ca="1">TEXT(TODAY()+7, "mm/dd/yy")</f>
-        <v>11/26/18</v>
+        <v>11/29/18</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>288</v>
@@ -4804,28 +5544,68 @@
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
+      <c r="U28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
+      <c r="AB28" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM28" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN28" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO28" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -4835,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>17</v>
@@ -4856,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>225</v>
@@ -4865,8 +5645,8 @@
         <v>226</v>
       </c>
       <c r="M29" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>286</v>
@@ -4876,7 +5656,7 @@
       </c>
       <c r="P29" s="24" t="str">
         <f ca="1">TEXT(TODAY()+66, "mm/dd/yy")</f>
-        <v>01/24/19</v>
+        <v>01/27/19</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>286</v>
@@ -4886,11 +5666,21 @@
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="U29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -4917,7 +5707,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>17</v>
@@ -4938,7 +5728,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>227</v>
@@ -4947,8 +5737,8 @@
         <v>228</v>
       </c>
       <c r="M30" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>286</v>
@@ -4958,7 +5748,7 @@
       </c>
       <c r="P30" s="24" t="str">
         <f ca="1">TEXT(TODAY()+54, "mm/dd/yy")</f>
-        <v>01/12/19</v>
+        <v>01/15/19</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>286</v>
@@ -4968,28 +5758,68 @@
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+      <c r="U30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
+      <c r="AB30" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM30" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN30" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4999,7 +5829,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>17</v>
@@ -5020,7 +5850,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>229</v>
@@ -5029,8 +5859,8 @@
         <v>230</v>
       </c>
       <c r="M31" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>286</v>
@@ -5040,7 +5870,7 @@
       </c>
       <c r="P31" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>286</v>
@@ -5050,28 +5880,68 @@
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
+      <c r="U31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
+      <c r="AB31" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM31" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN31" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AO31" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -5081,7 +5951,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>17</v>
@@ -5102,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>19</v>
@@ -5111,8 +5981,8 @@
         <v>20</v>
       </c>
       <c r="M32" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N32" s="27" t="s">
         <v>289</v>
@@ -5122,7 +5992,7 @@
       </c>
       <c r="P32" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>11/19/18</v>
+        <v>11/22/18</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>327</v>
@@ -5134,11 +6004,11 @@
       <c r="T32" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="U32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>302</v>
+      <c r="U32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="W32" s="7" t="s">
         <v>51</v>
@@ -5164,7 +6034,9 @@
       <c r="AL32" s="6"/>
       <c r="AM32" s="6"/>
       <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
+      <c r="AO32" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP32" s="6"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -5175,7 +6047,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>17</v>
@@ -5196,7 +6068,7 @@
         <v>18</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>23</v>
@@ -5205,8 +6077,8 @@
         <v>24</v>
       </c>
       <c r="M33" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N33" s="27" t="s">
         <v>288</v>
@@ -5216,7 +6088,7 @@
       </c>
       <c r="P33" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>288</v>
@@ -5226,38 +6098,60 @@
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V33" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="W33" s="7" t="s">
+      <c r="U33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="W33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="X33" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="Y33" s="7" t="s">
+      <c r="Y33" s="20" t="s">
         <v>56</v>
       </c>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
+      <c r="AB33" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI33" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ33" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
+      <c r="AO33" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="AP33" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -5267,7 +6161,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>17</v>
@@ -5288,7 +6182,7 @@
         <v>18</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>181</v>
@@ -5297,8 +6191,8 @@
         <v>182</v>
       </c>
       <c r="M34" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N34" s="27" t="s">
         <v>286</v>
@@ -5308,7 +6202,7 @@
       </c>
       <c r="P34" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>336</v>
@@ -5318,19 +6212,19 @@
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="W34" s="7" t="s">
+      <c r="U34" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="W34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X34" s="7" t="s">
+      <c r="X34" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="Y34" s="7" t="s">
+      <c r="Y34" s="20" t="s">
         <v>56</v>
       </c>
       <c r="Z34" s="6"/>
@@ -5348,7 +6242,9 @@
       <c r="AL34" s="6"/>
       <c r="AM34" s="6"/>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
+      <c r="AO34" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
@@ -5359,7 +6255,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>17</v>
@@ -5380,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>183</v>
@@ -5389,8 +6285,8 @@
         <v>184</v>
       </c>
       <c r="M35" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N35" s="27" t="s">
         <v>288</v>
@@ -5400,7 +6296,7 @@
       </c>
       <c r="P35" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>288</v>
@@ -5410,19 +6306,19 @@
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="W35" s="7" t="s">
+      <c r="U35" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="W35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="X35" s="7" t="s">
+      <c r="X35" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="Y35" s="7" t="s">
+      <c r="Y35" s="20" t="s">
         <v>56</v>
       </c>
       <c r="Z35" s="6"/>
@@ -5440,7 +6336,9 @@
       <c r="AL35" s="6"/>
       <c r="AM35" s="6"/>
       <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
+      <c r="AO35" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP35" s="6"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
@@ -5451,7 +6349,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
@@ -5472,7 +6370,7 @@
         <v>18</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>229</v>
@@ -5481,8 +6379,8 @@
         <v>230</v>
       </c>
       <c r="M36" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N36" s="27" t="s">
         <v>288</v>
@@ -5492,7 +6390,7 @@
       </c>
       <c r="P36" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "mm/dd/yy")</f>
-        <v>11/20/18</v>
+        <v>11/23/18</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>288</v>
@@ -5502,11 +6400,11 @@
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="7" t="s">
-        <v>52</v>
+      <c r="U36" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>51</v>
@@ -5543,7 +6441,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
@@ -5564,7 +6462,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>187</v>
@@ -5573,8 +6471,8 @@
         <v>188</v>
       </c>
       <c r="M37" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N37" s="27" t="s">
         <v>288</v>
@@ -5583,8 +6481,8 @@
         <v>269</v>
       </c>
       <c r="P37" s="24" t="str">
-        <f ca="1" ref="P37:P42" si="2" t="shared">TEXT(TODAY()+2, "mm/dd/yy")</f>
-        <v>11/21/18</v>
+        <f t="shared" ref="P37:P42" ca="1" si="2">TEXT(TODAY()+2, "mm/dd/yy")</f>
+        <v>11/24/18</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>51</v>
@@ -5594,11 +6492,11 @@
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="6" t="s">
-        <v>54</v>
+      <c r="U37" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W37" s="7" t="s">
         <v>51</v>
@@ -5635,7 +6533,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
@@ -5656,7 +6554,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>191</v>
@@ -5665,8 +6563,8 @@
         <v>192</v>
       </c>
       <c r="M38" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N38" s="27" t="s">
         <v>288</v>
@@ -5675,8 +6573,8 @@
         <v>264</v>
       </c>
       <c r="P38" s="24" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>288</v>
@@ -5687,10 +6585,10 @@
       <c r="S38" s="6"/>
       <c r="T38" s="7"/>
       <c r="U38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W38" s="7" t="s">
         <v>51</v>
@@ -5716,7 +6614,9 @@
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
+      <c r="AO38" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP38" s="6"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
@@ -5727,7 +6627,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>17</v>
@@ -5748,7 +6648,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>193</v>
@@ -5757,8 +6657,8 @@
         <v>194</v>
       </c>
       <c r="M39" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N39" s="27" t="s">
         <v>288</v>
@@ -5767,8 +6667,8 @@
         <v>268</v>
       </c>
       <c r="P39" s="24" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>326</v>
@@ -5779,10 +6679,10 @@
       <c r="S39" s="6"/>
       <c r="T39" s="7"/>
       <c r="U39" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="W39" s="7" t="s">
         <v>51</v>
@@ -5808,7 +6708,9 @@
       <c r="AL39" s="6"/>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
+      <c r="AO39" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP39" s="6"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -5819,7 +6721,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>17</v>
@@ -5840,7 +6742,7 @@
         <v>18</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>195</v>
@@ -5849,8 +6751,8 @@
         <v>196</v>
       </c>
       <c r="M40" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N40" s="27" t="s">
         <v>288</v>
@@ -5859,8 +6761,8 @@
         <v>265</v>
       </c>
       <c r="P40" s="24" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>332</v>
@@ -5870,28 +6772,60 @@
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="U40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
+      <c r="AB40" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
+      <c r="AO40" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="AP40" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -5901,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>17</v>
@@ -5922,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>197</v>
@@ -5931,8 +6865,8 @@
         <v>198</v>
       </c>
       <c r="M41" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N41" s="27" t="s">
         <v>288</v>
@@ -5941,8 +6875,8 @@
         <v>266</v>
       </c>
       <c r="P41" s="24" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>289</v>
@@ -5954,11 +6888,21 @@
       <c r="T41" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="U41" s="7"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
+      <c r="U41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
@@ -5974,7 +6918,9 @@
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6"/>
-      <c r="AO41" s="6"/>
+      <c r="AO41" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP41" s="6"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
@@ -5985,7 +6931,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>17</v>
@@ -6006,7 +6952,7 @@
         <v>18</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>199</v>
@@ -6015,8 +6961,8 @@
         <v>200</v>
       </c>
       <c r="M42" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N42" s="27" t="s">
         <v>288</v>
@@ -6025,8 +6971,8 @@
         <v>267</v>
       </c>
       <c r="P42" s="24" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>11/21/18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11/24/18</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>331</v>
@@ -6038,28 +6984,60 @@
       <c r="T42" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
+      <c r="U42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V42" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
+      <c r="AB42" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD42" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG42" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH42" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI42" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ42" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="6"/>
+      <c r="AO42" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AP42" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -6090,7 +7068,7 @@
         <v>18</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>201</v>
@@ -6099,8 +7077,8 @@
         <v>202</v>
       </c>
       <c r="M43" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N43" s="27" t="s">
         <v>286</v>
@@ -6110,7 +7088,7 @@
       </c>
       <c r="P43" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>286</v>
@@ -6122,11 +7100,21 @@
       <c r="T43" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
+      <c r="U43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -6142,7 +7130,9 @@
       <c r="AL43" s="6"/>
       <c r="AM43" s="6"/>
       <c r="AN43" s="6"/>
-      <c r="AO43" s="6"/>
+      <c r="AO43" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="AP43" s="6"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
@@ -6174,7 +7164,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>203</v>
@@ -6183,8 +7173,8 @@
         <v>204</v>
       </c>
       <c r="M44" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N44" s="27" t="s">
         <v>286</v>
@@ -6194,7 +7184,7 @@
       </c>
       <c r="P44" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>286</v>
@@ -6206,11 +7196,21 @@
       <c r="T44" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
+      <c r="U44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V44" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -6258,7 +7258,7 @@
         <v>18</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>231</v>
@@ -6267,8 +7267,8 @@
         <v>232</v>
       </c>
       <c r="M45" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N45" s="27" t="s">
         <v>288</v>
@@ -6278,7 +7278,7 @@
       </c>
       <c r="P45" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>331</v>
@@ -6287,11 +7287,21 @@
         <v>291</v>
       </c>
       <c r="S45" s="6"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
+      <c r="U45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -6339,7 +7349,7 @@
         <v>18</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>233</v>
@@ -6348,8 +7358,8 @@
         <v>234</v>
       </c>
       <c r="M46" s="24" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>11/19/18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11/22/18</v>
       </c>
       <c r="N46" s="27" t="s">
         <v>288</v>
@@ -6359,7 +7369,7 @@
       </c>
       <c r="P46" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "mm/dd/yy")</f>
-        <v>11/22/18</v>
+        <v>11/25/18</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>51</v>
@@ -6371,11 +7381,21 @@
       <c r="T46" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
+      <c r="U46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
@@ -6423,7 +7443,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>21</v>
@@ -6433,7 +7453,7 @@
       </c>
       <c r="M47" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "dd/mm/yy")</f>
-        <v>20/11/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="N47" s="27" t="s">
         <v>51</v>
@@ -6443,7 +7463,7 @@
       </c>
       <c r="P47" s="24" t="str">
         <f ca="1">TEXT(TODAY()+1, "dd/mm/yy")</f>
-        <v>20/11/18</v>
+        <v>23/11/18</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>329</v>
@@ -6453,11 +7473,11 @@
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="7"/>
-      <c r="U47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>302</v>
+      <c r="U47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="W47" s="7" t="s">
         <v>51</v>
@@ -6517,7 +7537,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>183</v>
@@ -6526,8 +7546,8 @@
         <v>184</v>
       </c>
       <c r="M48" s="24" t="str">
-        <f ca="1" ref="M48:M61" si="3" t="shared">TEXT(TODAY()+1, "dd/mm/yy")</f>
-        <v>20/11/18</v>
+        <f t="shared" ref="M48:M61" ca="1" si="3">TEXT(TODAY()+1, "dd/mm/yy")</f>
+        <v>23/11/18</v>
       </c>
       <c r="N48" s="27" t="s">
         <v>288</v>
@@ -6537,7 +7557,7 @@
       </c>
       <c r="P48" s="24" t="str">
         <f ca="1">TEXT(TODAY()+2, "dd/mm/yy")</f>
-        <v>21/11/18</v>
+        <v>24/11/18</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>288</v>
@@ -6609,7 +7629,7 @@
         <v>18</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>187</v>
@@ -6618,8 +7638,8 @@
         <v>188</v>
       </c>
       <c r="M49" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N49" s="27" t="s">
         <v>288</v>
@@ -6629,7 +7649,7 @@
       </c>
       <c r="P49" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>22/11/18</v>
+        <v>25/11/18</v>
       </c>
       <c r="Q49" s="27" t="s">
         <v>288</v>
@@ -6701,7 +7721,7 @@
         <v>18</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>191</v>
@@ -6710,8 +7730,8 @@
         <v>192</v>
       </c>
       <c r="M50" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N50" s="27" t="s">
         <v>288</v>
@@ -6721,7 +7741,7 @@
       </c>
       <c r="P50" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>22/11/18</v>
+        <v>25/11/18</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>288</v>
@@ -6793,7 +7813,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>193</v>
@@ -6802,8 +7822,8 @@
         <v>194</v>
       </c>
       <c r="M51" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N51" s="27" t="s">
         <v>288</v>
@@ -6813,7 +7833,7 @@
       </c>
       <c r="P51" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>22/11/18</v>
+        <v>25/11/18</v>
       </c>
       <c r="Q51" s="4" t="s">
         <v>326</v>
@@ -6885,7 +7905,7 @@
         <v>18</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>195</v>
@@ -6894,8 +7914,8 @@
         <v>196</v>
       </c>
       <c r="M52" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N52" s="27" t="s">
         <v>288</v>
@@ -6905,7 +7925,7 @@
       </c>
       <c r="P52" s="24" t="str">
         <f ca="1">TEXT(TODAY()+3, "dd/mm/yy")</f>
-        <v>22/11/18</v>
+        <v>25/11/18</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>332</v>
@@ -6977,7 +7997,7 @@
         <v>18</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>201</v>
@@ -6986,8 +8006,8 @@
         <v>202</v>
       </c>
       <c r="M53" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N53" s="27" t="s">
         <v>286</v>
@@ -6997,7 +8017,7 @@
       </c>
       <c r="P53" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>23/11/18</v>
+        <v>26/11/18</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>286</v>
@@ -7069,7 +8089,7 @@
         <v>18</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>203</v>
@@ -7078,8 +8098,8 @@
         <v>204</v>
       </c>
       <c r="M54" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N54" s="27" t="s">
         <v>286</v>
@@ -7089,7 +8109,7 @@
       </c>
       <c r="P54" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>23/11/18</v>
+        <v>26/11/18</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>286</v>
@@ -7161,7 +8181,7 @@
         <v>18</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>231</v>
@@ -7170,8 +8190,8 @@
         <v>232</v>
       </c>
       <c r="M55" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N55" s="27" t="s">
         <v>288</v>
@@ -7181,7 +8201,7 @@
       </c>
       <c r="P55" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>23/11/18</v>
+        <v>26/11/18</v>
       </c>
       <c r="Q55" s="4" t="s">
         <v>331</v>
@@ -7191,11 +8211,21 @@
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="7"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
+      <c r="U55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
@@ -7243,7 +8273,7 @@
         <v>18</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>233</v>
@@ -7252,8 +8282,8 @@
         <v>234</v>
       </c>
       <c r="M56" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N56" s="27" t="s">
         <v>288</v>
@@ -7263,7 +8293,7 @@
       </c>
       <c r="P56" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>23/11/18</v>
+        <v>26/11/18</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>51</v>
@@ -7273,11 +8303,21 @@
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
+      <c r="U56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
@@ -7325,7 +8365,7 @@
         <v>18</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>235</v>
@@ -7334,8 +8374,8 @@
         <v>236</v>
       </c>
       <c r="M57" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>288</v>
@@ -7345,7 +8385,7 @@
       </c>
       <c r="P57" s="24" t="str">
         <f ca="1">TEXT(TODAY()+4, "dd/mm/yy")</f>
-        <v>23/11/18</v>
+        <v>26/11/18</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>327</v>
@@ -7355,11 +8395,21 @@
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="7"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
+      <c r="U57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
@@ -7407,7 +8457,7 @@
         <v>18</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>213</v>
@@ -7416,8 +8466,8 @@
         <v>214</v>
       </c>
       <c r="M58" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>286</v>
@@ -7427,7 +8477,7 @@
       </c>
       <c r="P58" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>24/11/18</v>
+        <v>27/11/18</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>286</v>
@@ -7437,11 +8487,21 @@
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="7"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
+      <c r="U58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
@@ -7489,7 +8549,7 @@
         <v>18</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>223</v>
@@ -7498,8 +8558,8 @@
         <v>224</v>
       </c>
       <c r="M59" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>288</v>
@@ -7509,7 +8569,7 @@
       </c>
       <c r="P59" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>24/11/18</v>
+        <v>27/11/18</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>288</v>
@@ -7519,11 +8579,21 @@
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="7"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
+      <c r="U59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
@@ -7571,7 +8641,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>237</v>
@@ -7580,8 +8650,8 @@
         <v>238</v>
       </c>
       <c r="M60" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>288</v>
@@ -7591,7 +8661,7 @@
       </c>
       <c r="P60" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>24/11/18</v>
+        <v>27/11/18</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>288</v>
@@ -7601,11 +8671,21 @@
       </c>
       <c r="S60" s="6"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
+      <c r="U60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V60" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
@@ -7653,7 +8733,7 @@
         <v>18</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>239</v>
@@ -7662,8 +8742,8 @@
         <v>240</v>
       </c>
       <c r="M61" s="24" t="str">
-        <f ca="1" si="3" t="shared"/>
-        <v>20/11/18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/11/18</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>288</v>
@@ -7673,7 +8753,7 @@
       </c>
       <c r="P61" s="24" t="str">
         <f ca="1">TEXT(TODAY()+5, "dd/mm/yy")</f>
-        <v>24/11/18</v>
+        <v>27/11/18</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>328</v>
@@ -7683,11 +8763,21 @@
       </c>
       <c r="S61" s="6"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
+      <c r="U61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
@@ -7795,40 +8885,41 @@
       <c r="AP63" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:AP61"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="63.140625" collapsed="true"/>
+    <col min="1" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="63.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
@@ -8644,8 +9735,1011 @@
         <v>410</v>
       </c>
     </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>